--- a/data/fractionation/test_fract_adjust/230301 Batch 139 Water Yr Summary.xlsx
+++ b/data/fractionation/test_fract_adjust/230301 Batch 139 Water Yr Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\test_fract_adjust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F8D2DA-5FCF-412B-A52F-E3D65A188FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AADDDA-439D-4A9B-9CBE-3901381A0709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-9270" windowWidth="38620" windowHeight="21100" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="622" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="22" r:id="rId1"/>
@@ -1370,6 +1370,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1377,15 +1386,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2081,7 +2081,7 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.24119402836771639</c:v>
+                  <c:v>-2.4339784999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.7115308080245407E-3</c:v>
@@ -9985,7 +9985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E138FBF1-D534-4F7E-950C-764D2E6B8C19}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="H7" s="50">
         <f>Summary!J26</f>
-        <v>34.707307323797586</v>
+        <v>34.441773510429876</v>
       </c>
       <c r="I7" s="50">
         <v>37</v>
@@ -18673,8 +18673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA4E3B1-5772-4D1F-AF5A-033072A123CA}">
   <dimension ref="A1:AH86"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P67" sqref="P67"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="12.45"/>
@@ -18830,61 +18830,61 @@
       <c r="A2" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="113" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="116" t="s">
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="113" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="116" t="s">
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="117"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="113" t="s">
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="116" t="s">
         <v>173</v>
       </c>
-      <c r="L2" s="114"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="113" t="s">
+      <c r="L2" s="117"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="116" t="s">
         <v>174</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="113" t="s">
+      <c r="O2" s="117"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="116" t="s">
         <v>175</v>
       </c>
-      <c r="R2" s="114"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="113" t="s">
+      <c r="R2" s="117"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="U2" s="114"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="113" t="s">
+      <c r="U2" s="117"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="116" t="s">
         <v>202</v>
       </c>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="113" t="s">
+      <c r="X2" s="117"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="116" t="s">
         <v>203</v>
       </c>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="113" t="s">
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="113" t="s">
+      <c r="AD2" s="117"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="114"/>
-      <c r="AH2" s="115"/>
+      <c r="AG2" s="117"/>
+      <c r="AH2" s="118"/>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="59" t="s">
@@ -19151,7 +19151,7 @@
         <v>1.7671623880000009</v>
       </c>
       <c r="J5" s="71">
-        <v>0.24119402836771639</v>
+        <v>-2.4339784999999999E-2</v>
       </c>
       <c r="K5" s="69" t="str">
         <f>'Tube E'!G3</f>
@@ -21785,7 +21785,7 @@
       </c>
       <c r="J26" s="79">
         <f>SUM(J5:J25)*40/TubeLoading!J32*100</f>
-        <v>34.707307323797586</v>
+        <v>34.441773510429876</v>
       </c>
       <c r="K26" s="70"/>
       <c r="L26" s="78" t="s">
@@ -21936,20 +21936,21 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T2:V2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
